--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1864.603358739228</v>
+        <v>2123.348370040017</v>
       </c>
       <c r="AB2" t="n">
-        <v>2551.232575921544</v>
+        <v>2905.258915407551</v>
       </c>
       <c r="AC2" t="n">
-        <v>2307.746519553</v>
+        <v>2627.985082077552</v>
       </c>
       <c r="AD2" t="n">
-        <v>1864603.358739228</v>
+        <v>2123348.370040018</v>
       </c>
       <c r="AE2" t="n">
-        <v>2551232.575921544</v>
+        <v>2905258.915407551</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.342637857873532e-07</v>
+        <v>7.702290877753951e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.88802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2307746.519553</v>
+        <v>2627985.082077552</v>
       </c>
     </row>
     <row r="3">
@@ -4483,28 +4483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1308.827863516505</v>
+        <v>1507.224641103482</v>
       </c>
       <c r="AB3" t="n">
-        <v>1790.796024273437</v>
+        <v>2062.251248016035</v>
       </c>
       <c r="AC3" t="n">
-        <v>1619.884965114785</v>
+        <v>1865.432883293189</v>
       </c>
       <c r="AD3" t="n">
-        <v>1308827.863516505</v>
+        <v>1507224.641103482</v>
       </c>
       <c r="AE3" t="n">
-        <v>1790796.024273437</v>
+        <v>2062251.248016035</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.911187222411525e-07</v>
+        <v>9.963612678553748e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.97135416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1619884.965114785</v>
+        <v>1865432.883293189</v>
       </c>
     </row>
     <row r="4">
@@ -4589,28 +4589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.920780258022</v>
+        <v>1346.965570908012</v>
       </c>
       <c r="AB4" t="n">
-        <v>1595.264248343625</v>
+        <v>1842.977718043401</v>
       </c>
       <c r="AC4" t="n">
-        <v>1443.014467449143</v>
+        <v>1667.086511268811</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165920.780258022</v>
+        <v>1346965.570908012</v>
       </c>
       <c r="AE4" t="n">
-        <v>1595264.248343625</v>
+        <v>1842977.718043401</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.537673307890688e-07</v>
+        <v>1.086679537399224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.32552083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1443014.467449144</v>
+        <v>1667086.511268811</v>
       </c>
     </row>
     <row r="5">
@@ -4695,28 +4695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1092.349014998849</v>
+        <v>1264.931030053947</v>
       </c>
       <c r="AB5" t="n">
-        <v>1494.600113358815</v>
+        <v>1730.73444013835</v>
       </c>
       <c r="AC5" t="n">
-        <v>1351.957576224283</v>
+        <v>1565.555574272589</v>
       </c>
       <c r="AD5" t="n">
-        <v>1092349.014998849</v>
+        <v>1264931.030053947</v>
       </c>
       <c r="AE5" t="n">
-        <v>1494600.113358815</v>
+        <v>1730734.44013835</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.87845933054329e-07</v>
+        <v>1.135809445571363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.58072916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1351957.576224283</v>
+        <v>1565555.574272589</v>
       </c>
     </row>
     <row r="6">
@@ -4801,28 +4801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1047.721899190659</v>
+        <v>1211.755887304846</v>
       </c>
       <c r="AB6" t="n">
-        <v>1433.539324700652</v>
+        <v>1657.977863907299</v>
       </c>
       <c r="AC6" t="n">
-        <v>1296.7243435363</v>
+        <v>1499.742783562532</v>
       </c>
       <c r="AD6" t="n">
-        <v>1047721.899190659</v>
+        <v>1211755.887304846</v>
       </c>
       <c r="AE6" t="n">
-        <v>1433539.324700652</v>
+        <v>1657977.863907299</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.092267547495193e-07</v>
+        <v>1.166633415356074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.55208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1296724.3435363</v>
+        <v>1499742.783562532</v>
       </c>
     </row>
     <row r="7">
@@ -4907,28 +4907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1014.768174810347</v>
+        <v>1178.716822069962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1388.450585187794</v>
+        <v>1612.772357272244</v>
       </c>
       <c r="AC7" t="n">
-        <v>1255.938810040106</v>
+        <v>1458.8516270344</v>
       </c>
       <c r="AD7" t="n">
-        <v>1014768.174810347</v>
+        <v>1178716.822069962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1388450.585187794</v>
+        <v>1612772.357272244</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.226714635884165e-07</v>
+        <v>1.186016173648644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.94010416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1255938.810040106</v>
+        <v>1458851.6270344</v>
       </c>
     </row>
     <row r="8">
@@ -5013,28 +5013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>994.3316676319234</v>
+        <v>1158.109722690946</v>
       </c>
       <c r="AB8" t="n">
-        <v>1360.488454471209</v>
+        <v>1584.576814780811</v>
       </c>
       <c r="AC8" t="n">
-        <v>1230.645345834015</v>
+        <v>1433.347027545658</v>
       </c>
       <c r="AD8" t="n">
-        <v>994331.6676319235</v>
+        <v>1158109.722690946</v>
       </c>
       <c r="AE8" t="n">
-        <v>1360488.454471209</v>
+        <v>1584576.814780811</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332685084024082e-07</v>
+        <v>1.201293556052857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.47135416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1230645.345834015</v>
+        <v>1433347.027545657</v>
       </c>
     </row>
     <row r="9">
@@ -5119,28 +5119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>976.2050000011398</v>
+        <v>1131.520368973822</v>
       </c>
       <c r="AB9" t="n">
-        <v>1335.686748126635</v>
+        <v>1548.196087985545</v>
       </c>
       <c r="AC9" t="n">
-        <v>1208.210679533553</v>
+        <v>1400.438426255061</v>
       </c>
       <c r="AD9" t="n">
-        <v>976205.0000011397</v>
+        <v>1131520.368973822</v>
       </c>
       <c r="AE9" t="n">
-        <v>1335686.748126635</v>
+        <v>1548196.087985545</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.421149400863353e-07</v>
+        <v>1.214047141804391e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1208210.679533553</v>
+        <v>1400438.426255061</v>
       </c>
     </row>
     <row r="10">
@@ -5225,28 +5225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>954.8339507616677</v>
+        <v>1118.697257166711</v>
       </c>
       <c r="AB10" t="n">
-        <v>1306.445935733038</v>
+        <v>1530.65094069529</v>
       </c>
       <c r="AC10" t="n">
-        <v>1181.760569235063</v>
+        <v>1384.567763197418</v>
       </c>
       <c r="AD10" t="n">
-        <v>954833.9507616677</v>
+        <v>1118697.257166711</v>
       </c>
       <c r="AE10" t="n">
-        <v>1306445.935733038</v>
+        <v>1530650.94069529</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.472267304261244e-07</v>
+        <v>1.221416628030212e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.87239583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1181760.569235063</v>
+        <v>1384567.763197418</v>
       </c>
     </row>
     <row r="11">
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>940.1321071142771</v>
+        <v>1095.53272743298</v>
       </c>
       <c r="AB11" t="n">
-        <v>1286.330224655112</v>
+        <v>1498.956209166672</v>
       </c>
       <c r="AC11" t="n">
-        <v>1163.564673389837</v>
+        <v>1355.897932362057</v>
       </c>
       <c r="AD11" t="n">
-        <v>940132.1071142771</v>
+        <v>1095532.72743298</v>
       </c>
       <c r="AE11" t="n">
-        <v>1286330.224655112</v>
+        <v>1498956.209166672</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.533188641187495e-07</v>
+        <v>1.230199440381532e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.61197916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1163564.673389837</v>
+        <v>1355897.932362057</v>
       </c>
     </row>
     <row r="12">
@@ -5437,28 +5437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>927.4911036959206</v>
+        <v>1082.721131814031</v>
       </c>
       <c r="AB12" t="n">
-        <v>1269.034246096405</v>
+        <v>1481.426818833118</v>
       </c>
       <c r="AC12" t="n">
-        <v>1147.919398749714</v>
+        <v>1340.041522439284</v>
       </c>
       <c r="AD12" t="n">
-        <v>927491.1036959207</v>
+        <v>1082721.131814031</v>
       </c>
       <c r="AE12" t="n">
-        <v>1269034.246096405</v>
+        <v>1481426.818833118</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.571001884796894e-07</v>
+        <v>1.235650841151318e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.45572916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1147919.398749714</v>
+        <v>1340041.522439284</v>
       </c>
     </row>
     <row r="13">
@@ -5543,28 +5543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>907.7524658705611</v>
+        <v>1062.982493988672</v>
       </c>
       <c r="AB13" t="n">
-        <v>1242.026971016506</v>
+        <v>1454.419543753219</v>
       </c>
       <c r="AC13" t="n">
-        <v>1123.489660098492</v>
+        <v>1315.611783788061</v>
       </c>
       <c r="AD13" t="n">
-        <v>907752.4658705611</v>
+        <v>1062982.493988672</v>
       </c>
       <c r="AE13" t="n">
-        <v>1242026.971016506</v>
+        <v>1454419.543753219</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.607648052986249e-07</v>
+        <v>1.240933988810924e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1123489.660098492</v>
+        <v>1315611.783788061</v>
       </c>
     </row>
     <row r="14">
@@ -5649,28 +5649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>898.7307690617538</v>
+        <v>1053.960797179865</v>
       </c>
       <c r="AB14" t="n">
-        <v>1229.683087433523</v>
+        <v>1442.075660170236</v>
       </c>
       <c r="AC14" t="n">
-        <v>1112.323859439919</v>
+        <v>1304.445983129489</v>
       </c>
       <c r="AD14" t="n">
-        <v>898730.7690617538</v>
+        <v>1053960.797179864</v>
       </c>
       <c r="AE14" t="n">
-        <v>1229683.087433523</v>
+        <v>1442075.660170236</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.63799201390737e-07</v>
+        <v>1.245308569675567e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.18229166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1112323.859439919</v>
+        <v>1304445.983129489</v>
       </c>
     </row>
     <row r="15">
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>892.7731791622224</v>
+        <v>1048.003207280333</v>
       </c>
       <c r="AB15" t="n">
-        <v>1221.531650102667</v>
+        <v>1433.92422283938</v>
       </c>
       <c r="AC15" t="n">
-        <v>1104.950383847307</v>
+        <v>1297.072507536876</v>
       </c>
       <c r="AD15" t="n">
-        <v>892773.1791622224</v>
+        <v>1048003.207280333</v>
       </c>
       <c r="AE15" t="n">
-        <v>1221531.650102667</v>
+        <v>1433924.22283938</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.655731560292026e-07</v>
+        <v>1.247866016950281e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.1171875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1104950.383847306</v>
+        <v>1297072.507536876</v>
       </c>
     </row>
     <row r="16">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>891.0165930603773</v>
+        <v>1046.246621178488</v>
       </c>
       <c r="AB16" t="n">
-        <v>1219.128211503013</v>
+        <v>1431.520784239726</v>
       </c>
       <c r="AC16" t="n">
-        <v>1102.776326054356</v>
+        <v>1294.898449743925</v>
       </c>
       <c r="AD16" t="n">
-        <v>891016.5930603773</v>
+        <v>1046246.621178488</v>
       </c>
       <c r="AE16" t="n">
-        <v>1219128.211503013</v>
+        <v>1431520.784239726</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.652463749115906e-07</v>
+        <v>1.247394908241781e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>35.13020833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1102776.326054356</v>
+        <v>1294898.449743925</v>
       </c>
     </row>
     <row r="17">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>894.0620029813491</v>
+        <v>1049.29203109946</v>
       </c>
       <c r="AB17" t="n">
-        <v>1223.29507571089</v>
+        <v>1435.687648447603</v>
       </c>
       <c r="AC17" t="n">
-        <v>1106.545510590464</v>
+        <v>1298.667634280034</v>
       </c>
       <c r="AD17" t="n">
-        <v>894062.0029813491</v>
+        <v>1049292.03109946</v>
       </c>
       <c r="AE17" t="n">
-        <v>1223295.07571089</v>
+        <v>1435687.648447603</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.650829843527844e-07</v>
+        <v>1.247159353887531e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>36</v>
+        <v>35.13020833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1106545.510590464</v>
+        <v>1298667.634280034</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1485.637659953256</v>
+        <v>1712.652073374622</v>
       </c>
       <c r="AB2" t="n">
-        <v>2032.7149880559</v>
+        <v>2343.326123668099</v>
       </c>
       <c r="AC2" t="n">
-        <v>1838.715522529248</v>
+        <v>2119.682367304086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1485637.659953256</v>
+        <v>1712652.073374623</v>
       </c>
       <c r="AE2" t="n">
-        <v>2032714.9880559</v>
+        <v>2343326.123668099</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.168214196543288e-07</v>
+        <v>9.030033541980259e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.9765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1838715.522529248</v>
+        <v>2119682.367304086</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1111.083042276401</v>
+        <v>1287.678344730872</v>
       </c>
       <c r="AB3" t="n">
-        <v>1520.232835966914</v>
+        <v>1761.858319620017</v>
       </c>
       <c r="AC3" t="n">
-        <v>1375.143947762417</v>
+        <v>1593.709034379163</v>
       </c>
       <c r="AD3" t="n">
-        <v>1111083.042276401</v>
+        <v>1287678.344730872</v>
       </c>
       <c r="AE3" t="n">
-        <v>1520232.835966914</v>
+        <v>1761858.319620016</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.61989960463169e-07</v>
+        <v>1.115524636853674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.26302083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1375143.947762417</v>
+        <v>1593709.034379163</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1003.202191561344</v>
+        <v>1171.465321806833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1372.625496651339</v>
+        <v>1602.850534698617</v>
       </c>
       <c r="AC4" t="n">
-        <v>1241.624045742918</v>
+        <v>1449.876729281834</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003202.191561344</v>
+        <v>1171465.321806833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1372625.496651339</v>
+        <v>1602850.534698617</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.160538930764414e-07</v>
+        <v>1.194672200370972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.52864583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1241624.045742918</v>
+        <v>1449876.729281834</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>952.9462957477421</v>
+        <v>1112.706751092207</v>
       </c>
       <c r="AB5" t="n">
-        <v>1303.863162865523</v>
+        <v>1522.454466001678</v>
       </c>
       <c r="AC5" t="n">
-        <v>1179.424292585079</v>
+        <v>1377.15354854474</v>
       </c>
       <c r="AD5" t="n">
-        <v>952946.2957477421</v>
+        <v>1112706.751092207</v>
       </c>
       <c r="AE5" t="n">
-        <v>1303863.162865523</v>
+        <v>1522454.466001678</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.440396447060897e-07</v>
+        <v>1.235642287962106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1179424.292585079</v>
+        <v>1377153.54854474</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>913.6436446413391</v>
+        <v>1073.318759131233</v>
       </c>
       <c r="AB6" t="n">
-        <v>1250.087541711149</v>
+        <v>1468.562077725106</v>
       </c>
       <c r="AC6" t="n">
-        <v>1130.78094123912</v>
+        <v>1328.404574166842</v>
       </c>
       <c r="AD6" t="n">
-        <v>913643.6446413391</v>
+        <v>1073318.759131233</v>
       </c>
       <c r="AE6" t="n">
-        <v>1250087.541711149</v>
+        <v>1468562.077725106</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.634534016605653e-07</v>
+        <v>1.26406329781825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.41927083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1130780.94123912</v>
+        <v>1328404.574166842</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>882.8286036495438</v>
+        <v>1042.588969485458</v>
       </c>
       <c r="AB7" t="n">
-        <v>1207.925043162512</v>
+        <v>1426.516223829119</v>
       </c>
       <c r="AC7" t="n">
-        <v>1092.642372376527</v>
+        <v>1290.371517554962</v>
       </c>
       <c r="AD7" t="n">
-        <v>882828.6036495437</v>
+        <v>1042588.969485458</v>
       </c>
       <c r="AE7" t="n">
-        <v>1207925.043162512</v>
+        <v>1426516.223829119</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.752368760309436e-07</v>
+        <v>1.281313861014517e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.92447916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1092642.372376527</v>
+        <v>1290371.517554962</v>
       </c>
     </row>
     <row r="8">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>863.2108630277637</v>
+        <v>1014.724487017818</v>
       </c>
       <c r="AB8" t="n">
-        <v>1181.083184970159</v>
+        <v>1388.390809622687</v>
       </c>
       <c r="AC8" t="n">
-        <v>1068.362263457267</v>
+        <v>1255.884739371037</v>
       </c>
       <c r="AD8" t="n">
-        <v>863210.8630277637</v>
+        <v>1014724.487017818</v>
       </c>
       <c r="AE8" t="n">
-        <v>1181083.184970159</v>
+        <v>1388390.809622687</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.849437545081814e-07</v>
+        <v>1.29552436594259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.53385416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1068362.263457267</v>
+        <v>1255884.739371037</v>
       </c>
     </row>
     <row r="9">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>845.0407392610472</v>
+        <v>996.3837710505095</v>
       </c>
       <c r="AB9" t="n">
-        <v>1156.222020023251</v>
+        <v>1363.296232900932</v>
       </c>
       <c r="AC9" t="n">
-        <v>1045.873813200028</v>
+        <v>1233.185153831147</v>
       </c>
       <c r="AD9" t="n">
-        <v>845040.7392610472</v>
+        <v>996383.7710505095</v>
       </c>
       <c r="AE9" t="n">
-        <v>1156222.020023251</v>
+        <v>1363296.232900932</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.917530573205722e-07</v>
+        <v>1.305492929101088e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1045873.813200028</v>
+        <v>1233185.153831147</v>
       </c>
     </row>
     <row r="10">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>826.7712640071129</v>
+        <v>978.114295796575</v>
       </c>
       <c r="AB10" t="n">
-        <v>1131.224917988454</v>
+        <v>1338.299130866136</v>
       </c>
       <c r="AC10" t="n">
-        <v>1023.26239949978</v>
+        <v>1210.573740130898</v>
       </c>
       <c r="AD10" t="n">
-        <v>826771.2640071129</v>
+        <v>978114.295796575</v>
       </c>
       <c r="AE10" t="n">
-        <v>1131224.917988454</v>
+        <v>1338299.130866135</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.971618652282868e-07</v>
+        <v>1.313411220404292e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.0390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1023262.39949978</v>
+        <v>1210573.740130898</v>
       </c>
     </row>
     <row r="11">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>809.0787294325697</v>
+        <v>960.5070125680526</v>
       </c>
       <c r="AB11" t="n">
-        <v>1107.017211644027</v>
+        <v>1314.208069174357</v>
       </c>
       <c r="AC11" t="n">
-        <v>1001.365042673135</v>
+        <v>1188.781895554965</v>
       </c>
       <c r="AD11" t="n">
-        <v>809078.7294325697</v>
+        <v>960507.0125680526</v>
       </c>
       <c r="AE11" t="n">
-        <v>1107017.211644027</v>
+        <v>1314208.069174357</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.99697243935028e-07</v>
+        <v>1.31712291945267e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.94791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1001365.042673135</v>
+        <v>1188781.895554965</v>
       </c>
     </row>
     <row r="12">
@@ -7324,28 +7324,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>810.5918234368089</v>
+        <v>962.020106572292</v>
       </c>
       <c r="AB12" t="n">
-        <v>1109.087493613623</v>
+        <v>1316.278351143953</v>
       </c>
       <c r="AC12" t="n">
-        <v>1003.237739837212</v>
+        <v>1190.654592719043</v>
       </c>
       <c r="AD12" t="n">
-        <v>810591.8234368089</v>
+        <v>962020.1065722919</v>
       </c>
       <c r="AE12" t="n">
-        <v>1109087.493613623</v>
+        <v>1316278.351143953</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.99528218687912e-07</v>
+        <v>1.316875472849444e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.94791666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1003237.739837212</v>
+        <v>1190654.592719042</v>
       </c>
     </row>
   </sheetData>
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>814.1866042230234</v>
+        <v>969.4471275617997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1114.006031275857</v>
+        <v>1326.440328918839</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.686859168173</v>
+        <v>1199.846725597519</v>
       </c>
       <c r="AD2" t="n">
-        <v>814186.6042230234</v>
+        <v>969447.1275617997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1114006.031275857</v>
+        <v>1326440.328918839</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.739265668477515e-07</v>
+        <v>1.35207227021718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.14322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007686.859168173</v>
+        <v>1199846.725597518</v>
       </c>
     </row>
     <row r="3">
@@ -7727,28 +7727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.0658690234513</v>
+        <v>822.7918148937481</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.6008567372251</v>
+        <v>1125.780060150644</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.4038626907644</v>
+        <v>1018.337191252104</v>
       </c>
       <c r="AD3" t="n">
-        <v>683065.8690234513</v>
+        <v>822791.8148937481</v>
       </c>
       <c r="AE3" t="n">
-        <v>934600.8567372251</v>
+        <v>1125780.060150644</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.710864003625654e-07</v>
+        <v>1.502390525386076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.1328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>845403.8626907644</v>
+        <v>1018337.191252104</v>
       </c>
     </row>
     <row r="4">
@@ -7833,28 +7833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.8740780608663</v>
+        <v>777.5146830765915</v>
       </c>
       <c r="AB4" t="n">
-        <v>872.7674546211088</v>
+        <v>1063.82989091233</v>
       </c>
       <c r="AC4" t="n">
-        <v>789.4717536888853</v>
+        <v>962.2994592182862</v>
       </c>
       <c r="AD4" t="n">
-        <v>637874.0780608663</v>
+        <v>777514.6830765915</v>
       </c>
       <c r="AE4" t="n">
-        <v>872767.4546211087</v>
+        <v>1063829.89091233</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.993775332495745e-07</v>
+        <v>1.546160400019282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>789471.7536888854</v>
+        <v>962299.4592182862</v>
       </c>
     </row>
     <row r="5">
@@ -7939,28 +7939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.2841450352472</v>
+        <v>778.9247500509724</v>
       </c>
       <c r="AB5" t="n">
-        <v>874.6967704632212</v>
+        <v>1065.759206754443</v>
       </c>
       <c r="AC5" t="n">
-        <v>791.2169383348385</v>
+        <v>964.0446438642391</v>
       </c>
       <c r="AD5" t="n">
-        <v>639284.1450352472</v>
+        <v>778924.7500509724</v>
       </c>
       <c r="AE5" t="n">
-        <v>874696.7704632212</v>
+        <v>1065759.206754443</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.992158696330775e-07</v>
+        <v>1.54591028644995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>791216.9383348385</v>
+        <v>964044.6438642391</v>
       </c>
     </row>
   </sheetData>
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1020.952473093865</v>
+        <v>1197.254122151653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1396.912214931288</v>
+        <v>1638.135909051975</v>
       </c>
       <c r="AC2" t="n">
-        <v>1263.592873716852</v>
+        <v>1481.794517030242</v>
       </c>
       <c r="AD2" t="n">
-        <v>1020952.473093865</v>
+        <v>1197254.122151653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1396912.214931288</v>
+        <v>1638135.909051975</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.729313899365089e-07</v>
+        <v>1.16812654762855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.42447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1263592.873716852</v>
+        <v>1481794.517030242</v>
       </c>
     </row>
     <row r="3">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>827.2103058940977</v>
+        <v>987.4689344198459</v>
       </c>
       <c r="AB3" t="n">
-        <v>1131.825634467388</v>
+        <v>1351.098560128024</v>
       </c>
       <c r="AC3" t="n">
-        <v>1023.805784441075</v>
+        <v>1222.151609828144</v>
       </c>
       <c r="AD3" t="n">
-        <v>827210.3058940977</v>
+        <v>987468.9344198459</v>
       </c>
       <c r="AE3" t="n">
-        <v>1131825.634467388</v>
+        <v>1351098.560128024</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.878426197216405e-07</v>
+        <v>1.341791196108777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.79947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1023805.784441075</v>
+        <v>1222151.609828144</v>
       </c>
     </row>
     <row r="4">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.0805883288673</v>
+        <v>911.3817161942492</v>
       </c>
       <c r="AB4" t="n">
-        <v>1049.553502158721</v>
+        <v>1246.992671420601</v>
       </c>
       <c r="AC4" t="n">
-        <v>949.3855889702842</v>
+        <v>1127.981441025424</v>
       </c>
       <c r="AD4" t="n">
-        <v>767080.5883288673</v>
+        <v>911381.7161942492</v>
       </c>
       <c r="AE4" t="n">
-        <v>1049553.502158721</v>
+        <v>1246992.6714206</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.284920161709795e-07</v>
+        <v>1.403224383783366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.14583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>949385.5889702842</v>
+        <v>1127981.441025424</v>
       </c>
     </row>
     <row r="5">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>725.3714068147931</v>
+        <v>869.5871938256034</v>
       </c>
       <c r="AB5" t="n">
-        <v>992.4851599319431</v>
+        <v>1189.807562071624</v>
       </c>
       <c r="AC5" t="n">
-        <v>897.7637692297085</v>
+        <v>1076.253998252909</v>
       </c>
       <c r="AD5" t="n">
-        <v>725371.4068147931</v>
+        <v>869587.1938256035</v>
       </c>
       <c r="AE5" t="n">
-        <v>992485.1599319432</v>
+        <v>1189807.562071624</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.509690445183627e-07</v>
+        <v>1.437193781153209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.29947916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>897763.7692297085</v>
+        <v>1076253.998252909</v>
       </c>
     </row>
     <row r="6">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>696.0032274152244</v>
+        <v>840.3042657720553</v>
       </c>
       <c r="AB6" t="n">
-        <v>952.3023212448196</v>
+        <v>1149.74136803715</v>
       </c>
       <c r="AC6" t="n">
-        <v>861.4159242699153</v>
+        <v>1040.011665543828</v>
       </c>
       <c r="AD6" t="n">
-        <v>696003.2274152244</v>
+        <v>840304.2657720553</v>
       </c>
       <c r="AE6" t="n">
-        <v>952302.3212448196</v>
+        <v>1149741.36803715</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.605836449467731e-07</v>
+        <v>1.451724268789621e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.93489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>861415.9242699153</v>
+        <v>1040011.665543828</v>
       </c>
     </row>
     <row r="7">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>696.8789679120313</v>
+        <v>841.180006268862</v>
       </c>
       <c r="AB7" t="n">
-        <v>953.5005480274945</v>
+        <v>1150.939594819825</v>
       </c>
       <c r="AC7" t="n">
-        <v>862.4997939701736</v>
+        <v>1041.095535244087</v>
       </c>
       <c r="AD7" t="n">
-        <v>696878.9679120312</v>
+        <v>841180.0062688621</v>
       </c>
       <c r="AE7" t="n">
-        <v>953500.5480274945</v>
+        <v>1150939.594819825</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.613053843891204e-07</v>
+        <v>1.452815029255625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>862499.7939701737</v>
+        <v>1041095.535244087</v>
       </c>
     </row>
   </sheetData>
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.6323044155331</v>
+        <v>814.6378554492129</v>
       </c>
       <c r="AB2" t="n">
-        <v>908.0109962923094</v>
+        <v>1114.623453111329</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.351701207608</v>
+        <v>1008.245355130225</v>
       </c>
       <c r="AD2" t="n">
-        <v>663632.3044155331</v>
+        <v>814637.8554492129</v>
       </c>
       <c r="AE2" t="n">
-        <v>908010.9962923094</v>
+        <v>1114623.453111329</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.598635685231874e-07</v>
+        <v>1.517052842418223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.95572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>821351.701207608</v>
+        <v>1008245.355130224</v>
       </c>
     </row>
     <row r="3">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>585.1221045880955</v>
+        <v>721.0101218560441</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.5898772628433</v>
+        <v>986.5178574450694</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.1827030118266</v>
+        <v>892.3659777170203</v>
       </c>
       <c r="AD3" t="n">
-        <v>585122.1045880954</v>
+        <v>721010.121856044</v>
       </c>
       <c r="AE3" t="n">
-        <v>800589.8772628433</v>
+        <v>986517.8574450694</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027555763277206e-06</v>
+        <v>1.624039543266877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.45572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>724182.7030118266</v>
+        <v>892365.9777170203</v>
       </c>
     </row>
     <row r="4">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>589.1439488599432</v>
+        <v>725.0319661278918</v>
       </c>
       <c r="AB4" t="n">
-        <v>806.0927420268322</v>
+        <v>992.0207222090582</v>
       </c>
       <c r="AC4" t="n">
-        <v>729.1603820860597</v>
+        <v>897.3436567912535</v>
       </c>
       <c r="AD4" t="n">
-        <v>589143.9488599432</v>
+        <v>725031.9661278918</v>
       </c>
       <c r="AE4" t="n">
-        <v>806092.7420268322</v>
+        <v>992020.7222090582</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026576339210902e-06</v>
+        <v>1.622491575292631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.49479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>729160.3820860597</v>
+        <v>897343.6567912535</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1577.898724605121</v>
+        <v>1806.445723165846</v>
       </c>
       <c r="AB2" t="n">
-        <v>2158.95064698349</v>
+        <v>2471.658733196242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1952.903427341648</v>
+        <v>2235.767092694812</v>
       </c>
       <c r="AD2" t="n">
-        <v>1577898.724605121</v>
+        <v>1806445.723165846</v>
       </c>
       <c r="AE2" t="n">
-        <v>2158950.646983489</v>
+        <v>2471658.733196242</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952716828489374e-07</v>
+        <v>8.678384246009441e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1952903.427341648</v>
+        <v>2235767.092694812</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1156.689306055672</v>
+        <v>1342.950642700216</v>
       </c>
       <c r="AB3" t="n">
-        <v>1582.633338076071</v>
+        <v>1837.484316143362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1431.589033529931</v>
+        <v>1662.117391936074</v>
       </c>
       <c r="AD3" t="n">
-        <v>1156689.306055672</v>
+        <v>1342950.642700216</v>
       </c>
       <c r="AE3" t="n">
-        <v>1582633.338076071</v>
+        <v>1837484.316143362</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.42558111854212e-07</v>
+        <v>1.082565289990026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.96614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1431589.033529931</v>
+        <v>1662117.391936074</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1040.152318502072</v>
+        <v>1217.854131639604</v>
       </c>
       <c r="AB4" t="n">
-        <v>1423.182290456196</v>
+        <v>1666.321750841668</v>
       </c>
       <c r="AC4" t="n">
-        <v>1287.355770103945</v>
+        <v>1507.290341638604</v>
       </c>
       <c r="AD4" t="n">
-        <v>1040152.318502072</v>
+        <v>1217854.131639604</v>
       </c>
       <c r="AE4" t="n">
-        <v>1423182.290456196</v>
+        <v>1666321.750841668</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.993429528013307e-07</v>
+        <v>1.16535113102468e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1287355.770103945</v>
+        <v>1507290.341638604</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>985.641723226515</v>
+        <v>1146.651193622881</v>
       </c>
       <c r="AB5" t="n">
-        <v>1348.59848916244</v>
+        <v>1568.89874979526</v>
       </c>
       <c r="AC5" t="n">
-        <v>1219.890142126643</v>
+        <v>1419.165255078025</v>
       </c>
       <c r="AD5" t="n">
-        <v>985641.723226515</v>
+        <v>1146651.193622881</v>
       </c>
       <c r="AE5" t="n">
-        <v>1348598.489162439</v>
+        <v>1568898.74979526</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.292788297608106e-07</v>
+        <v>1.208994235590357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1219890.142126643</v>
+        <v>1419165.255078025</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>944.5603967821254</v>
+        <v>1105.48452632392</v>
       </c>
       <c r="AB6" t="n">
-        <v>1292.389205941014</v>
+        <v>1512.572699451637</v>
       </c>
       <c r="AC6" t="n">
-        <v>1169.045394005646</v>
+        <v>1368.214883925089</v>
       </c>
       <c r="AD6" t="n">
-        <v>944560.3967821253</v>
+        <v>1105484.52632392</v>
       </c>
       <c r="AE6" t="n">
-        <v>1292389.205941014</v>
+        <v>1512572.699451637</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.489728559299969e-07</v>
+        <v>1.237705886315818e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.70572916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1169045.394005646</v>
+        <v>1368214.883925089</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>922.1549047624169</v>
+        <v>1074.604941160322</v>
       </c>
       <c r="AB7" t="n">
-        <v>1261.733023299103</v>
+        <v>1470.321888719652</v>
       </c>
       <c r="AC7" t="n">
-        <v>1141.314994408856</v>
+        <v>1329.99643126998</v>
       </c>
       <c r="AD7" t="n">
-        <v>922154.9047624168</v>
+        <v>1074604.941160322</v>
       </c>
       <c r="AE7" t="n">
-        <v>1261733.023299103</v>
+        <v>1470321.888719652</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.615358738386515e-07</v>
+        <v>1.256021337872157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1141314.994408856</v>
+        <v>1329996.43126998</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>894.4740404208061</v>
+        <v>1055.312829108029</v>
       </c>
       <c r="AB8" t="n">
-        <v>1223.858843513364</v>
+        <v>1443.925569901789</v>
       </c>
       <c r="AC8" t="n">
-        <v>1107.055473185123</v>
+        <v>1306.119340072628</v>
       </c>
       <c r="AD8" t="n">
-        <v>894474.040420806</v>
+        <v>1055312.829108029</v>
       </c>
       <c r="AE8" t="n">
-        <v>1223858.843513364</v>
+        <v>1443925.56990179</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.70605176290804e-07</v>
+        <v>1.269243349567115e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.79427083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1107055.473185123</v>
+        <v>1306119.340072628</v>
       </c>
     </row>
     <row r="9">
@@ -10314,28 +10314,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>879.3896387502381</v>
+        <v>1031.924926494164</v>
       </c>
       <c r="AB9" t="n">
-        <v>1203.219699670858</v>
+        <v>1411.925209744057</v>
       </c>
       <c r="AC9" t="n">
-        <v>1088.386100263725</v>
+        <v>1277.173049375561</v>
       </c>
       <c r="AD9" t="n">
-        <v>879389.6387502381</v>
+        <v>1031924.926494164</v>
       </c>
       <c r="AE9" t="n">
-        <v>1203219.699670858</v>
+        <v>1411925.209744057</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.770182978136982e-07</v>
+        <v>1.278592951504446e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.53385416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1088386.100263726</v>
+        <v>1277173.049375561</v>
       </c>
     </row>
     <row r="10">
@@ -10420,28 +10420,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>860.1649442412781</v>
+        <v>1012.529639784612</v>
       </c>
       <c r="AB10" t="n">
-        <v>1176.915624510036</v>
+        <v>1385.387722808388</v>
       </c>
       <c r="AC10" t="n">
-        <v>1064.592449118251</v>
+        <v>1253.168262947436</v>
       </c>
       <c r="AD10" t="n">
-        <v>860164.9442412781</v>
+        <v>1012529.639784612</v>
       </c>
       <c r="AE10" t="n">
-        <v>1176915.624510036</v>
+        <v>1385387.722808388</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.840535878425446e-07</v>
+        <v>1.288849604375996e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.24739583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1064592.449118251</v>
+        <v>1253168.262947436</v>
       </c>
     </row>
     <row r="11">
@@ -10526,28 +10526,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>843.9071879063174</v>
+        <v>996.2718834496512</v>
       </c>
       <c r="AB11" t="n">
-        <v>1154.671045050954</v>
+        <v>1363.143143349305</v>
       </c>
       <c r="AC11" t="n">
-        <v>1044.47086110228</v>
+        <v>1233.046674931464</v>
       </c>
       <c r="AD11" t="n">
-        <v>843907.1879063174</v>
+        <v>996271.8834496512</v>
       </c>
       <c r="AE11" t="n">
-        <v>1154671.045050954</v>
+        <v>1363143.143349305</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.882173309208418e-07</v>
+        <v>1.294919868320383e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.078125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1044470.86110228</v>
+        <v>1233046.674931464</v>
       </c>
     </row>
     <row r="12">
@@ -10632,28 +10632,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>825.375247411419</v>
+        <v>977.8251943007733</v>
       </c>
       <c r="AB12" t="n">
-        <v>1129.31482649432</v>
+        <v>1337.903569445321</v>
       </c>
       <c r="AC12" t="n">
-        <v>1021.534604457015</v>
+        <v>1210.215930536912</v>
       </c>
       <c r="AD12" t="n">
-        <v>825375.2474114189</v>
+        <v>977825.1943007733</v>
       </c>
       <c r="AE12" t="n">
-        <v>1129314.82649432</v>
+        <v>1337903.569445321</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.908017231763364e-07</v>
+        <v>1.29868761835483e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1021534.604457015</v>
+        <v>1210215.930536912</v>
       </c>
     </row>
     <row r="13">
@@ -10738,28 +10738,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>828.6950260551063</v>
+        <v>981.1449729444606</v>
       </c>
       <c r="AB13" t="n">
-        <v>1133.857094092911</v>
+        <v>1342.445837043912</v>
       </c>
       <c r="AC13" t="n">
-        <v>1025.643364411109</v>
+        <v>1214.324690491006</v>
       </c>
       <c r="AD13" t="n">
-        <v>828695.0260551063</v>
+        <v>981144.9729444606</v>
       </c>
       <c r="AE13" t="n">
-        <v>1133857.094092911</v>
+        <v>1342445.837043911</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.908735118501002e-07</v>
+        <v>1.298792278078009e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1025643.364411109</v>
+        <v>1214324.690491006</v>
       </c>
     </row>
   </sheetData>
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.8880399589704</v>
+        <v>727.074576744231</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.6378638279582</v>
+        <v>994.8155121679542</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.1306712100254</v>
+        <v>899.8717159189845</v>
       </c>
       <c r="AD2" t="n">
-        <v>585888.0399589704</v>
+        <v>727074.5767442309</v>
       </c>
       <c r="AE2" t="n">
-        <v>801637.8638279582</v>
+        <v>994815.5121679542</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012033002503367e-06</v>
+        <v>1.621514594212712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.84895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>725130.6712100254</v>
+        <v>899871.7159189845</v>
       </c>
     </row>
     <row r="3">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.4544071232658</v>
+        <v>698.5556030539547</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.7337129787976</v>
+        <v>955.794594196596</v>
       </c>
       <c r="AC3" t="n">
-        <v>689.93947791559</v>
+        <v>864.5748995926103</v>
       </c>
       <c r="AD3" t="n">
-        <v>557454.4071232658</v>
+        <v>698555.6030539547</v>
       </c>
       <c r="AE3" t="n">
-        <v>762733.7129787976</v>
+        <v>955794.594196596</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039067133473773e-06</v>
+        <v>1.664829622281894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.88541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>689939.47791559</v>
+        <v>864574.8995926103</v>
       </c>
     </row>
   </sheetData>
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1246.731626094455</v>
+        <v>1444.158141621213</v>
       </c>
       <c r="AB2" t="n">
-        <v>1705.833212739937</v>
+        <v>1975.960881126802</v>
       </c>
       <c r="AC2" t="n">
-        <v>1543.030885067988</v>
+        <v>1787.377947910573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1246731.626094455</v>
+        <v>1444158.141621213</v>
       </c>
       <c r="AE2" t="n">
-        <v>1705833.212739937</v>
+        <v>1975960.881126802</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.89229534385062e-07</v>
+        <v>1.023397785392373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1543030.885067988</v>
+        <v>1787377.947910573</v>
       </c>
     </row>
     <row r="3">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>968.9231890811645</v>
+        <v>1133.587445520623</v>
       </c>
       <c r="AB3" t="n">
-        <v>1325.7234531751</v>
+        <v>1551.02435330986</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.19826746862</v>
+        <v>1402.996765906318</v>
       </c>
       <c r="AD3" t="n">
-        <v>968923.1890811645</v>
+        <v>1133587.445520623</v>
       </c>
       <c r="AE3" t="n">
-        <v>1325723.4531751</v>
+        <v>1551024.35330986</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198905766385397e-07</v>
+        <v>1.217408945112296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.50520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199198.26746862</v>
+        <v>1402996.765906318</v>
       </c>
     </row>
     <row r="4">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>887.4732930479199</v>
+        <v>1043.733744464813</v>
       </c>
       <c r="AB4" t="n">
-        <v>1214.280112106605</v>
+        <v>1428.082555459779</v>
       </c>
       <c r="AC4" t="n">
-        <v>1098.390922459991</v>
+        <v>1291.788360693153</v>
       </c>
       <c r="AD4" t="n">
-        <v>887473.2930479199</v>
+        <v>1043733.744464813</v>
       </c>
       <c r="AE4" t="n">
-        <v>1214280.112106605</v>
+        <v>1428082.555459779</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687018799327749e-07</v>
+        <v>1.289886076751764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.29166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1098390.922459991</v>
+        <v>1291788.360693153</v>
       </c>
     </row>
     <row r="5">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>841.5833113236793</v>
+        <v>989.6958907731708</v>
       </c>
       <c r="AB5" t="n">
-        <v>1151.491414588389</v>
+        <v>1354.145580057023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1041.594690108423</v>
+        <v>1224.907826451639</v>
       </c>
       <c r="AD5" t="n">
-        <v>841583.3113236793</v>
+        <v>989695.8907731709</v>
       </c>
       <c r="AE5" t="n">
-        <v>1151491.414588389</v>
+        <v>1354145.580057023</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.942768135650246e-07</v>
+        <v>1.327860842972648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.22395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1041594.690108423</v>
+        <v>1224907.826451638</v>
       </c>
     </row>
     <row r="6">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>806.1550556929661</v>
+        <v>954.3528864884784</v>
       </c>
       <c r="AB6" t="n">
-        <v>1103.016912250119</v>
+        <v>1305.787722371402</v>
       </c>
       <c r="AC6" t="n">
-        <v>997.746526238926</v>
+        <v>1181.165174832854</v>
       </c>
       <c r="AD6" t="n">
-        <v>806155.0556929661</v>
+        <v>954352.8864884784</v>
       </c>
       <c r="AE6" t="n">
-        <v>1103016.912250119</v>
+        <v>1305787.722371402</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.097760194530513e-07</v>
+        <v>1.350874733396394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.61197916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>997746.526238926</v>
+        <v>1181165.174832854</v>
       </c>
     </row>
     <row r="7">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>783.5833263610583</v>
+        <v>931.6105649559784</v>
       </c>
       <c r="AB7" t="n">
-        <v>1072.133276383784</v>
+        <v>1274.67067473022</v>
       </c>
       <c r="AC7" t="n">
-        <v>969.8103812342191</v>
+        <v>1153.017894545495</v>
       </c>
       <c r="AD7" t="n">
-        <v>783583.3263610583</v>
+        <v>931610.5649559783</v>
       </c>
       <c r="AE7" t="n">
-        <v>1072133.276383784</v>
+        <v>1274670.67473022</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.210956642027338e-07</v>
+        <v>1.367682630896882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.16927083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>969810.3812342191</v>
+        <v>1153017.894545496</v>
       </c>
     </row>
     <row r="8">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>754.8741717116034</v>
+        <v>902.9866616525441</v>
       </c>
       <c r="AB8" t="n">
-        <v>1032.852144433886</v>
+        <v>1235.506187432972</v>
       </c>
       <c r="AC8" t="n">
-        <v>934.2781853862042</v>
+        <v>1117.591210948193</v>
       </c>
       <c r="AD8" t="n">
-        <v>754874.1717116034</v>
+        <v>902986.661652544</v>
       </c>
       <c r="AE8" t="n">
-        <v>1032852.144433886</v>
+        <v>1235506.187432972</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.27215735869595e-07</v>
+        <v>1.376769977677366e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.93489583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>934278.1853862042</v>
+        <v>1117591.210948193</v>
       </c>
     </row>
     <row r="9">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>755.4997600625996</v>
+        <v>903.6122500035405</v>
       </c>
       <c r="AB9" t="n">
-        <v>1033.708102014729</v>
+        <v>1236.362145013815</v>
       </c>
       <c r="AC9" t="n">
-        <v>935.052451576876</v>
+        <v>1118.365477138865</v>
       </c>
       <c r="AD9" t="n">
-        <v>755499.7600625997</v>
+        <v>903612.2500035404</v>
       </c>
       <c r="AE9" t="n">
-        <v>1033708.102014729</v>
+        <v>1236362.145013815</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.28086477773417e-07</v>
+        <v>1.378062892869711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>935052.451576876</v>
+        <v>1118365.477138865</v>
       </c>
     </row>
     <row r="10">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>757.7192172986034</v>
+        <v>905.831707239544</v>
       </c>
       <c r="AB10" t="n">
-        <v>1036.744861320572</v>
+        <v>1239.398904319658</v>
       </c>
       <c r="AC10" t="n">
-        <v>937.7993868366876</v>
+        <v>1121.112412398676</v>
       </c>
       <c r="AD10" t="n">
-        <v>757719.2172986034</v>
+        <v>905831.707239544</v>
       </c>
       <c r="AE10" t="n">
-        <v>1036744.861320572</v>
+        <v>1239398.904319658</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.28111356113526e-07</v>
+        <v>1.378099833303778e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>937799.3868366877</v>
+        <v>1121112.412398676</v>
       </c>
     </row>
   </sheetData>
@@ -12583,28 +12583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.407039815623</v>
+        <v>1619.557517269294</v>
       </c>
       <c r="AB2" t="n">
-        <v>1918.835181707779</v>
+        <v>2215.950044962834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.704245067679</v>
+        <v>2004.462882777002</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402407.039815623</v>
+        <v>1619557.517269294</v>
       </c>
       <c r="AE2" t="n">
-        <v>1918835.181707779</v>
+        <v>2215950.044962834</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.400114462500015e-07</v>
+        <v>9.411000177031434e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.59635416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735704.245067679</v>
+        <v>2004462.882777002</v>
       </c>
     </row>
     <row r="3">
@@ -12689,28 +12689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1062.183872160167</v>
+        <v>1237.627159860176</v>
       </c>
       <c r="AB3" t="n">
-        <v>1453.32683413475</v>
+        <v>1693.376080377493</v>
       </c>
       <c r="AC3" t="n">
-        <v>1314.623360841952</v>
+        <v>1531.76264393452</v>
       </c>
       <c r="AD3" t="n">
-        <v>1062183.872160167</v>
+        <v>1237627.159860176</v>
       </c>
       <c r="AE3" t="n">
-        <v>1453326.83413475</v>
+        <v>1693376.080377493</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.793923667884502e-07</v>
+        <v>1.146051644044801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.72916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1314623.360841952</v>
+        <v>1531762.64393452</v>
       </c>
     </row>
     <row r="4">
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>968.3163084562469</v>
+        <v>1127.042673421513</v>
       </c>
       <c r="AB4" t="n">
-        <v>1324.893092330404</v>
+        <v>1542.069507388891</v>
       </c>
       <c r="AC4" t="n">
-        <v>1198.447155097523</v>
+        <v>1394.896557911842</v>
       </c>
       <c r="AD4" t="n">
-        <v>968316.308456247</v>
+        <v>1127042.673421514</v>
       </c>
       <c r="AE4" t="n">
-        <v>1324893.092330404</v>
+        <v>1542069.507388891</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.323610167237507e-07</v>
+        <v>1.223938996972472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.13802083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1198447.155097523</v>
+        <v>1394896.557911842</v>
       </c>
     </row>
     <row r="5">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>910.2712673905564</v>
+        <v>1068.997542847272</v>
       </c>
       <c r="AB5" t="n">
-        <v>1245.473306377844</v>
+        <v>1462.649598966783</v>
       </c>
       <c r="AC5" t="n">
-        <v>1126.607082049906</v>
+        <v>1323.056374082998</v>
       </c>
       <c r="AD5" t="n">
-        <v>910271.2673905564</v>
+        <v>1068997.542847272</v>
       </c>
       <c r="AE5" t="n">
-        <v>1245473.306377844</v>
+        <v>1462649.598966783</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.607588433112452e-07</v>
+        <v>1.265696367502034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1126607.082049906</v>
+        <v>1323056.374082998</v>
       </c>
     </row>
     <row r="6">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>880.6986082868694</v>
+        <v>1031.066467130489</v>
       </c>
       <c r="AB6" t="n">
-        <v>1205.010689538538</v>
+        <v>1410.750627770124</v>
       </c>
       <c r="AC6" t="n">
-        <v>1090.006160572104</v>
+        <v>1276.110567856684</v>
       </c>
       <c r="AD6" t="n">
-        <v>880698.6082868695</v>
+        <v>1031066.467130489</v>
       </c>
       <c r="AE6" t="n">
-        <v>1205010.689538538</v>
+        <v>1410750.627770124</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.787481961194604e-07</v>
+        <v>1.292148676043507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.11979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1090006.160572104</v>
+        <v>1276110.567856684</v>
       </c>
     </row>
     <row r="7">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>849.8717438409275</v>
+        <v>1008.512678443072</v>
       </c>
       <c r="AB7" t="n">
-        <v>1162.832013618324</v>
+        <v>1379.891539085065</v>
       </c>
       <c r="AC7" t="n">
-        <v>1051.852958283572</v>
+        <v>1248.196627284725</v>
       </c>
       <c r="AD7" t="n">
-        <v>849871.7438409275</v>
+        <v>1008512.678443072</v>
       </c>
       <c r="AE7" t="n">
-        <v>1162832.013618324</v>
+        <v>1379891.539085065</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.896929378686322e-07</v>
+        <v>1.308242289234729e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.67708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1051852.958283572</v>
+        <v>1248196.627284725</v>
       </c>
     </row>
     <row r="8">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>831.5316189295601</v>
+        <v>981.8141369186084</v>
       </c>
       <c r="AB8" t="n">
-        <v>1137.738245605384</v>
+        <v>1343.361416714772</v>
       </c>
       <c r="AC8" t="n">
-        <v>1029.154104270462</v>
+        <v>1215.152888523103</v>
       </c>
       <c r="AD8" t="n">
-        <v>831531.6189295601</v>
+        <v>981814.1369186083</v>
       </c>
       <c r="AE8" t="n">
-        <v>1137738.245605384</v>
+        <v>1343361.416714772</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.977125816002078e-07</v>
+        <v>1.320034714045222e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.3515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1029154.104270462</v>
+        <v>1215152.888523103</v>
       </c>
     </row>
     <row r="9">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>813.3870817332596</v>
+        <v>963.6695997223079</v>
       </c>
       <c r="AB9" t="n">
-        <v>1112.912089332919</v>
+        <v>1318.535260442307</v>
       </c>
       <c r="AC9" t="n">
-        <v>1006.697321508912</v>
+        <v>1192.696105761553</v>
       </c>
       <c r="AD9" t="n">
-        <v>813387.0817332596</v>
+        <v>963669.5997223079</v>
       </c>
       <c r="AE9" t="n">
-        <v>1112912.089332919</v>
+        <v>1318535.260442307</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.050253266441978e-07</v>
+        <v>1.330787684997041e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.06510416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1006697.321508912</v>
+        <v>1192696.105761553</v>
       </c>
     </row>
     <row r="10">
@@ -13431,28 +13431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>791.1314591268099</v>
+        <v>941.4992284618788</v>
       </c>
       <c r="AB10" t="n">
-        <v>1082.460964634001</v>
+        <v>1288.200780396038</v>
       </c>
       <c r="AC10" t="n">
-        <v>979.1524094128366</v>
+        <v>1165.25670591619</v>
       </c>
       <c r="AD10" t="n">
-        <v>791131.4591268098</v>
+        <v>941499.2284618788</v>
       </c>
       <c r="AE10" t="n">
-        <v>1082460.964634001</v>
+        <v>1288200.780396038</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.091204638688322e-07</v>
+        <v>1.336809348730059e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>979152.4094128367</v>
+        <v>1165256.70591619</v>
       </c>
     </row>
     <row r="11">
@@ -13537,28 +13537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>792.3982830004234</v>
+        <v>942.7660523354923</v>
       </c>
       <c r="AB11" t="n">
-        <v>1084.194288946204</v>
+        <v>1289.934104708241</v>
       </c>
       <c r="AC11" t="n">
-        <v>980.7203076854189</v>
+        <v>1166.824604188772</v>
       </c>
       <c r="AD11" t="n">
-        <v>792398.2830004233</v>
+        <v>942766.0523354923</v>
       </c>
       <c r="AE11" t="n">
-        <v>1084194.288946204</v>
+        <v>1289934.104708241</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.090717122352056e-07</v>
+        <v>1.336737662257047e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>980720.3076854189</v>
+        <v>1166824.604188772</v>
       </c>
     </row>
   </sheetData>
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1769.22408877153</v>
+        <v>2009.349362404155</v>
       </c>
       <c r="AB2" t="n">
-        <v>2420.730450915325</v>
+        <v>2749.280443878897</v>
       </c>
       <c r="AC2" t="n">
-        <v>2189.699334196492</v>
+        <v>2486.892976954432</v>
       </c>
       <c r="AD2" t="n">
-        <v>1769224.08877153</v>
+        <v>2009349.362404155</v>
       </c>
       <c r="AE2" t="n">
-        <v>2420730.450915325</v>
+        <v>2749280.443878897</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.534985820544133e-07</v>
+        <v>8.007865309946318e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2189699.334196492</v>
+        <v>2486892.976954432</v>
       </c>
     </row>
     <row r="3">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1262.653535749342</v>
+        <v>1451.286838131992</v>
       </c>
       <c r="AB3" t="n">
-        <v>1727.618271954832</v>
+        <v>1985.714678188743</v>
       </c>
       <c r="AC3" t="n">
-        <v>1562.736808806936</v>
+        <v>1796.200856270464</v>
       </c>
       <c r="AD3" t="n">
-        <v>1262653.535749342</v>
+        <v>1451286.838131992</v>
       </c>
       <c r="AE3" t="n">
-        <v>1727618.271954832</v>
+        <v>1985714.678188743</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.079840949032669e-07</v>
+        <v>1.024291923662464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.26822916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1562736.808806936</v>
+        <v>1796200.856270464</v>
       </c>
     </row>
     <row r="4">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1121.216013124416</v>
+        <v>1301.267230790185</v>
       </c>
       <c r="AB4" t="n">
-        <v>1534.097213716291</v>
+        <v>1780.451233025711</v>
       </c>
       <c r="AC4" t="n">
-        <v>1387.68512875817</v>
+        <v>1610.527466224737</v>
       </c>
       <c r="AD4" t="n">
-        <v>1121216.013124416</v>
+        <v>1301267.230790185</v>
       </c>
       <c r="AE4" t="n">
-        <v>1534097.213716291</v>
+        <v>1780451.233025711</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.682630903219025e-07</v>
+        <v>1.111501916963558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.8828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1387685.12875817</v>
+        <v>1610527.466224737</v>
       </c>
     </row>
     <row r="5">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1058.635618173572</v>
+        <v>1221.608275785805</v>
       </c>
       <c r="AB5" t="n">
-        <v>1448.471956492372</v>
+        <v>1671.458336483651</v>
       </c>
       <c r="AC5" t="n">
-        <v>1310.231825907899</v>
+        <v>1511.93669875616</v>
       </c>
       <c r="AD5" t="n">
-        <v>1058635.618173572</v>
+        <v>1221608.275785805</v>
       </c>
       <c r="AE5" t="n">
-        <v>1448471.956492372</v>
+        <v>1671458.336483651</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.017435784096149e-07</v>
+        <v>1.1599405666386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.21614583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1310231.825907899</v>
+        <v>1511936.69875616</v>
       </c>
     </row>
     <row r="6">
@@ -14258,28 +14258,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1017.151254062906</v>
+        <v>1180.038570820568</v>
       </c>
       <c r="AB6" t="n">
-        <v>1391.711219355182</v>
+        <v>1614.580832224262</v>
       </c>
       <c r="AC6" t="n">
-        <v>1258.888253858887</v>
+        <v>1460.487503675208</v>
       </c>
       <c r="AD6" t="n">
-        <v>1017151.254062906</v>
+        <v>1180038.570820568</v>
       </c>
       <c r="AE6" t="n">
-        <v>1391711.219355182</v>
+        <v>1614580.832224262</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.208248685284726e-07</v>
+        <v>1.187546852574271e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.31770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1258888.253858887</v>
+        <v>1460487.503675208</v>
       </c>
     </row>
     <row r="7">
@@ -14364,28 +14364,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>984.3278677957281</v>
+        <v>1147.300435899411</v>
       </c>
       <c r="AB7" t="n">
-        <v>1346.800814198826</v>
+        <v>1569.787071720556</v>
       </c>
       <c r="AC7" t="n">
-        <v>1218.264034738504</v>
+        <v>1419.968796805538</v>
       </c>
       <c r="AD7" t="n">
-        <v>984327.8677957281</v>
+        <v>1147300.435899411</v>
       </c>
       <c r="AE7" t="n">
-        <v>1346800.814198826</v>
+        <v>1569787.071720556</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356005161174277e-07</v>
+        <v>1.208923853274149e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1218264.034738504</v>
+        <v>1419968.796805538</v>
       </c>
     </row>
     <row r="8">
@@ -14470,28 +14470,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>963.1054546143038</v>
+        <v>1117.496117018208</v>
       </c>
       <c r="AB8" t="n">
-        <v>1317.76337221721</v>
+        <v>1529.007487753545</v>
       </c>
       <c r="AC8" t="n">
-        <v>1191.997885465308</v>
+        <v>1383.081159097833</v>
       </c>
       <c r="AD8" t="n">
-        <v>963105.4546143038</v>
+        <v>1117496.117018208</v>
       </c>
       <c r="AE8" t="n">
-        <v>1317763.37221721</v>
+        <v>1529007.487753545</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.463293302902997e-07</v>
+        <v>1.224446006648583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.19791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1191997.885465308</v>
+        <v>1383081.159097833</v>
       </c>
     </row>
     <row r="9">
@@ -14576,28 +14576,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>938.5203670954102</v>
+        <v>1101.407594344521</v>
       </c>
       <c r="AB9" t="n">
-        <v>1284.124970856347</v>
+        <v>1506.994461255879</v>
       </c>
       <c r="AC9" t="n">
-        <v>1161.569885918533</v>
+        <v>1363.169024953628</v>
       </c>
       <c r="AD9" t="n">
-        <v>938520.3670954101</v>
+        <v>1101407.594344521</v>
       </c>
       <c r="AE9" t="n">
-        <v>1284124.970856347</v>
+        <v>1506994.461255879</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.535759854772395e-07</v>
+        <v>1.234930268138331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.88541666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1161569.885918533</v>
+        <v>1363169.024953628</v>
       </c>
     </row>
     <row r="10">
@@ -14682,28 +14682,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>922.0911284046266</v>
+        <v>1084.978355653738</v>
       </c>
       <c r="AB10" t="n">
-        <v>1261.645761672761</v>
+        <v>1484.515252072293</v>
       </c>
       <c r="AC10" t="n">
-        <v>1141.236060909659</v>
+        <v>1342.835199944754</v>
       </c>
       <c r="AD10" t="n">
-        <v>922091.1284046266</v>
+        <v>1084978.355653738</v>
       </c>
       <c r="AE10" t="n">
-        <v>1261645.761672761</v>
+        <v>1484515.252072293</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.589403925636756e-07</v>
+        <v>1.242691344825549e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.6640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1141236.060909659</v>
+        <v>1342835.199944754</v>
       </c>
     </row>
     <row r="11">
@@ -14788,28 +14788,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>908.4731107189194</v>
+        <v>1062.778432268252</v>
       </c>
       <c r="AB11" t="n">
-        <v>1243.012989090637</v>
+        <v>1454.140337504774</v>
       </c>
       <c r="AC11" t="n">
-        <v>1124.381573991513</v>
+        <v>1315.359224592099</v>
       </c>
       <c r="AD11" t="n">
-        <v>908473.1107189194</v>
+        <v>1062778.432268252</v>
       </c>
       <c r="AE11" t="n">
-        <v>1243012.989090637</v>
+        <v>1454140.337504774</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.643047996501115e-07</v>
+        <v>1.250452421512765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.44270833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1124381.573991513</v>
+        <v>1315359.224592099</v>
       </c>
     </row>
     <row r="12">
@@ -14894,28 +14894,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>894.7598350600487</v>
+        <v>1049.065156609382</v>
       </c>
       <c r="AB12" t="n">
-        <v>1224.249880347146</v>
+        <v>1435.377228761283</v>
       </c>
       <c r="AC12" t="n">
-        <v>1107.409190012312</v>
+        <v>1298.386840612898</v>
       </c>
       <c r="AD12" t="n">
-        <v>894759.8350600486</v>
+        <v>1049065.156609382</v>
       </c>
       <c r="AE12" t="n">
-        <v>1224249.880347145</v>
+        <v>1435377.228761283</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.681634082561444e-07</v>
+        <v>1.256034950357956e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.28645833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1107409.190012312</v>
+        <v>1298386.840612898</v>
       </c>
     </row>
     <row r="13">
@@ -15000,28 +15000,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>882.4662857981667</v>
+        <v>1036.7716073475</v>
       </c>
       <c r="AB13" t="n">
-        <v>1207.429303893923</v>
+        <v>1418.55665230806</v>
       </c>
       <c r="AC13" t="n">
-        <v>1092.193945767958</v>
+        <v>1283.171596368544</v>
       </c>
       <c r="AD13" t="n">
-        <v>882466.2857981668</v>
+        <v>1036771.6073475</v>
       </c>
       <c r="AE13" t="n">
-        <v>1207429.303893923</v>
+        <v>1418556.65230806</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.714808705332825e-07</v>
+        <v>1.260834563572419e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1092193.945767957</v>
+        <v>1283171.596368544</v>
       </c>
     </row>
     <row r="14">
@@ -15106,28 +15106,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>873.2769263049104</v>
+        <v>1027.582247854243</v>
       </c>
       <c r="AB14" t="n">
-        <v>1194.85601682932</v>
+        <v>1405.983365243458</v>
       </c>
       <c r="AC14" t="n">
-        <v>1080.820635574082</v>
+        <v>1271.798286174668</v>
       </c>
       <c r="AD14" t="n">
-        <v>873276.9263049103</v>
+        <v>1027582.247854243</v>
       </c>
       <c r="AE14" t="n">
-        <v>1194856.01682932</v>
+        <v>1405983.365243458</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.726808036973536e-07</v>
+        <v>1.262570593884033e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1080820.635574082</v>
+        <v>1271798.286174668</v>
       </c>
     </row>
     <row r="15">
@@ -15212,28 +15212,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>871.9442920471039</v>
+        <v>1026.249613596437</v>
       </c>
       <c r="AB15" t="n">
-        <v>1193.032647846115</v>
+        <v>1404.159996260252</v>
       </c>
       <c r="AC15" t="n">
-        <v>1079.171286367519</v>
+        <v>1270.148936968106</v>
       </c>
       <c r="AD15" t="n">
-        <v>871944.2920471039</v>
+        <v>1026249.613596437</v>
       </c>
       <c r="AE15" t="n">
-        <v>1193032.647846116</v>
+        <v>1404159.996260253</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.745395236966012e-07</v>
+        <v>1.265259738876534e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.02604166666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1079171.286367519</v>
+        <v>1270148.936968106</v>
       </c>
     </row>
   </sheetData>
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1091.470568134347</v>
+        <v>1277.588839643351</v>
       </c>
       <c r="AB2" t="n">
-        <v>1493.398183604462</v>
+        <v>1748.05341364172</v>
       </c>
       <c r="AC2" t="n">
-        <v>1350.870356958766</v>
+        <v>1581.221649252128</v>
       </c>
       <c r="AD2" t="n">
-        <v>1091470.568134347</v>
+        <v>1277588.839643351</v>
       </c>
       <c r="AE2" t="n">
-        <v>1493398.183604462</v>
+        <v>1748053.41364172</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.434547812454805e-07</v>
+        <v>1.116434606226955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1350870.356958766</v>
+        <v>1581221.649252128</v>
       </c>
     </row>
     <row r="3">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>877.6802208518724</v>
+        <v>1039.340472460687</v>
       </c>
       <c r="AB3" t="n">
-        <v>1200.880798688119</v>
+        <v>1422.071486886253</v>
       </c>
       <c r="AC3" t="n">
-        <v>1086.270420708111</v>
+        <v>1286.350980067696</v>
       </c>
       <c r="AD3" t="n">
-        <v>877680.2208518723</v>
+        <v>1039340.472460687</v>
       </c>
       <c r="AE3" t="n">
-        <v>1200880.798688119</v>
+        <v>1422071.486886253</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.636222018925606e-07</v>
+        <v>1.296888172920924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.37239583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1086270.420708111</v>
+        <v>1286350.980067696</v>
       </c>
     </row>
     <row r="4">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>804.7835660487551</v>
+        <v>958.348008424371</v>
       </c>
       <c r="AB4" t="n">
-        <v>1101.140379613056</v>
+        <v>1311.254024456431</v>
       </c>
       <c r="AC4" t="n">
-        <v>996.0490872430147</v>
+        <v>1186.109780718891</v>
       </c>
       <c r="AD4" t="n">
-        <v>804783.5660487551</v>
+        <v>958348.008424371</v>
       </c>
       <c r="AE4" t="n">
-        <v>1101140.379613056</v>
+        <v>1311254.024456431</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084463551989591e-07</v>
+        <v>1.364199914278281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>996049.0872430147</v>
+        <v>1186109.78071889</v>
       </c>
     </row>
     <row r="5">
@@ -15827,28 +15827,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>763.7849062777912</v>
+        <v>909.5094724753719</v>
       </c>
       <c r="AB5" t="n">
-        <v>1045.044204581208</v>
+        <v>1244.430984966869</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.3066524247303</v>
+        <v>1125.664238331487</v>
       </c>
       <c r="AD5" t="n">
-        <v>763784.9062777911</v>
+        <v>909509.4724753719</v>
       </c>
       <c r="AE5" t="n">
-        <v>1045044.204581208</v>
+        <v>1244430.984966869</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.302348135920752e-07</v>
+        <v>1.39691930701076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>945306.6524247302</v>
+        <v>1125664.238331487</v>
       </c>
     </row>
     <row r="6">
@@ -15933,28 +15933,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>733.9901379086957</v>
+        <v>879.5441119056844</v>
       </c>
       <c r="AB6" t="n">
-        <v>1004.277688046201</v>
+        <v>1203.431056657015</v>
       </c>
       <c r="AC6" t="n">
-        <v>908.4308350116587</v>
+        <v>1088.577285635765</v>
       </c>
       <c r="AD6" t="n">
-        <v>733990.1379086957</v>
+        <v>879544.1119056845</v>
       </c>
       <c r="AE6" t="n">
-        <v>1004277.688046201</v>
+        <v>1203431.056657015</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.461943502889018e-07</v>
+        <v>1.420885497715509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.02604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>908430.8350116587</v>
+        <v>1088577.285635765</v>
       </c>
     </row>
     <row r="7">
@@ -16039,28 +16039,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.5763424409297</v>
+        <v>858.2155677839389</v>
       </c>
       <c r="AB7" t="n">
-        <v>974.978388377222</v>
+        <v>1174.248401640685</v>
       </c>
       <c r="AC7" t="n">
-        <v>881.9278193812614</v>
+        <v>1062.17978225608</v>
       </c>
       <c r="AD7" t="n">
-        <v>712576.3424409297</v>
+        <v>858215.567783939</v>
       </c>
       <c r="AE7" t="n">
-        <v>974978.388377222</v>
+        <v>1174248.401640685</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.509542121107626e-07</v>
+        <v>1.428033308978329e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.85677083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>881927.8193812615</v>
+        <v>1062179.78225608</v>
       </c>
     </row>
     <row r="8">
@@ -16145,28 +16145,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>715.4854518501584</v>
+        <v>861.1246771931676</v>
       </c>
       <c r="AB8" t="n">
-        <v>978.9587602117779</v>
+        <v>1178.228773475241</v>
       </c>
       <c r="AC8" t="n">
-        <v>885.5283101144145</v>
+        <v>1065.780272989233</v>
       </c>
       <c r="AD8" t="n">
-        <v>715485.4518501584</v>
+        <v>861124.6771931676</v>
       </c>
       <c r="AE8" t="n">
-        <v>978958.7602117779</v>
+        <v>1178228.773475241</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508014892715584e-07</v>
+        <v>1.427803967440484e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.85677083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>885528.3101144144</v>
+        <v>1065780.272989233</v>
       </c>
     </row>
   </sheetData>
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>881.6309073206548</v>
+        <v>1046.482346953752</v>
       </c>
       <c r="AB2" t="n">
-        <v>1206.286302206694</v>
+        <v>1431.843314644929</v>
       </c>
       <c r="AC2" t="n">
-        <v>1091.160030557544</v>
+        <v>1295.19019829993</v>
       </c>
       <c r="AD2" t="n">
-        <v>881630.9073206548</v>
+        <v>1046482.346953752</v>
       </c>
       <c r="AE2" t="n">
-        <v>1206286.302206693</v>
+        <v>1431843.314644929</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.386778972070141e-07</v>
+        <v>1.286319498200221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1091160.030557544</v>
+        <v>1295190.19829993</v>
       </c>
     </row>
     <row r="3">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>730.5188320180661</v>
+        <v>879.7391390130229</v>
       </c>
       <c r="AB3" t="n">
-        <v>999.5280941834338</v>
+        <v>1203.697901349264</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.1345357210571</v>
+        <v>1088.818663045104</v>
       </c>
       <c r="AD3" t="n">
-        <v>730518.8320180661</v>
+        <v>879739.1390130229</v>
       </c>
       <c r="AE3" t="n">
-        <v>999528.0941834338</v>
+        <v>1203697.901349264</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406258759228616e-07</v>
+        <v>1.442681879110715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.70572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>904134.5357210571</v>
+        <v>1088818.663045104</v>
       </c>
     </row>
     <row r="4">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.8666316775664</v>
+        <v>817.143495334422</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.7505425926491</v>
+        <v>1118.051780143302</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.4936487031439</v>
+        <v>1011.346487441953</v>
       </c>
       <c r="AD4" t="n">
-        <v>675866.6316775663</v>
+        <v>817143.495334422</v>
       </c>
       <c r="AE4" t="n">
-        <v>924750.5425926491</v>
+        <v>1118051.780143302</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.772157876596287e-07</v>
+        <v>1.498801537278851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.32552083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>836493.6487031439</v>
+        <v>1011346.487441953</v>
       </c>
     </row>
     <row r="5">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>651.8972451404335</v>
+        <v>793.2593601433097</v>
       </c>
       <c r="AB5" t="n">
-        <v>891.9545704778415</v>
+        <v>1085.372452681143</v>
       </c>
       <c r="AC5" t="n">
-        <v>806.8276781375375</v>
+        <v>981.786029127059</v>
       </c>
       <c r="AD5" t="n">
-        <v>651897.2451404334</v>
+        <v>793259.3601433097</v>
       </c>
       <c r="AE5" t="n">
-        <v>891954.5704778414</v>
+        <v>1085372.452681143</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.869730974560999e-07</v>
+        <v>1.513766779457021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>806827.6781375376</v>
+        <v>981786.029127059</v>
       </c>
     </row>
   </sheetData>
@@ -30726,28 +30726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.2285978394314</v>
+        <v>896.4232074406673</v>
       </c>
       <c r="AB2" t="n">
-        <v>1016.918156495521</v>
+        <v>1226.525779821118</v>
       </c>
       <c r="AC2" t="n">
-        <v>919.8649148931841</v>
+        <v>1109.467880834734</v>
       </c>
       <c r="AD2" t="n">
-        <v>743228.5978394314</v>
+        <v>896423.2074406673</v>
       </c>
       <c r="AE2" t="n">
-        <v>1016918.156495521</v>
+        <v>1226525.779821118</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.150514627042677e-07</v>
+        <v>1.429749860750819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>919864.9148931841</v>
+        <v>1109467.880834734</v>
       </c>
     </row>
     <row r="3">
@@ -30832,28 +30832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>625.3645620887251</v>
+        <v>763.3932437103704</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.65138298713</v>
+        <v>1044.50831457753</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.9892159090962</v>
+        <v>944.8219070108768</v>
       </c>
       <c r="AD3" t="n">
-        <v>625364.562088725</v>
+        <v>763393.2437103704</v>
       </c>
       <c r="AE3" t="n">
-        <v>855651.38298713</v>
+        <v>1044508.31457753</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002601497742696e-06</v>
+        <v>1.566545063541917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>773989.2159090962</v>
+        <v>944821.9070108768</v>
       </c>
     </row>
     <row r="4">
@@ -30938,28 +30938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.4222824313441</v>
+        <v>751.2803718523975</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.3114291037067</v>
+        <v>1027.93494891926</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.2087242910376</v>
+        <v>929.8302801101672</v>
       </c>
       <c r="AD4" t="n">
-        <v>613422.2824313442</v>
+        <v>751280.3718523975</v>
       </c>
       <c r="AE4" t="n">
-        <v>839311.4291037067</v>
+        <v>1027934.94891926</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013627535990016e-06</v>
+        <v>1.583773030810721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>759208.7242910375</v>
+        <v>929830.2801101672</v>
       </c>
     </row>
   </sheetData>
@@ -31235,28 +31235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.7807890893826</v>
+        <v>666.2388152589402</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.1329596772033</v>
+        <v>911.5773394194016</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.2136035255845</v>
+        <v>824.5776775520445</v>
       </c>
       <c r="AD2" t="n">
-        <v>527780.7890893825</v>
+        <v>666238.8152589402</v>
       </c>
       <c r="AE2" t="n">
-        <v>722132.9596772033</v>
+        <v>911577.3394194016</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045245637760985e-06</v>
+        <v>1.703411869081391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>653213.6035255846</v>
+        <v>824577.6775520445</v>
       </c>
     </row>
     <row r="3">
@@ -31341,28 +31341,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.7471230882629</v>
+        <v>670.2051492578206</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.5598728367779</v>
+        <v>917.0042525789762</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.1225797099298</v>
+        <v>829.4866537363897</v>
       </c>
       <c r="AD3" t="n">
-        <v>531747.123088263</v>
+        <v>670205.1492578206</v>
       </c>
       <c r="AE3" t="n">
-        <v>727559.8728367779</v>
+        <v>917004.2525789762</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045010129252504e-06</v>
+        <v>1.703028066485981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>658122.5797099299</v>
+        <v>829486.6537363897</v>
       </c>
     </row>
   </sheetData>
@@ -31638,28 +31638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1324.877281760652</v>
+        <v>1532.051239686018</v>
       </c>
       <c r="AB2" t="n">
-        <v>1812.755546365439</v>
+        <v>2096.220095468889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1639.74870123871</v>
+        <v>1896.15979162072</v>
       </c>
       <c r="AD2" t="n">
-        <v>1324877.281760652</v>
+        <v>1532051.239686018</v>
       </c>
       <c r="AE2" t="n">
-        <v>1812755.546365439</v>
+        <v>2096220.095468889</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.633878201733271e-07</v>
+        <v>9.80076431641289e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1639748.70123871</v>
+        <v>1896159.79162072</v>
       </c>
     </row>
     <row r="3">
@@ -31744,28 +31744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1019.19003221073</v>
+        <v>1185.048693649133</v>
       </c>
       <c r="AB3" t="n">
-        <v>1394.500765561579</v>
+        <v>1621.435903309325</v>
       </c>
       <c r="AC3" t="n">
-        <v>1261.411569690498</v>
+        <v>1466.688336397065</v>
       </c>
       <c r="AD3" t="n">
-        <v>1019190.03221073</v>
+        <v>1185048.693649133</v>
       </c>
       <c r="AE3" t="n">
-        <v>1394500.765561579</v>
+        <v>1621435.903309325</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.995317615953748e-07</v>
+        <v>1.181212877383749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.09114583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1261411.569690498</v>
+        <v>1466688.336397065</v>
       </c>
     </row>
     <row r="4">
@@ -31850,28 +31850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>923.2960570848797</v>
+        <v>1089.06928816016</v>
       </c>
       <c r="AB4" t="n">
-        <v>1263.294398250784</v>
+        <v>1490.112646406784</v>
       </c>
       <c r="AC4" t="n">
-        <v>1142.727353926552</v>
+        <v>1347.898386819955</v>
       </c>
       <c r="AD4" t="n">
-        <v>923296.0570848797</v>
+        <v>1089069.28816016</v>
       </c>
       <c r="AE4" t="n">
-        <v>1263294.398250784</v>
+        <v>1490112.646406784</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.499764154785171e-07</v>
+        <v>1.255738840733894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1142727.353926552</v>
+        <v>1347898.386819954</v>
       </c>
     </row>
     <row r="5">
@@ -31956,28 +31956,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.1891835225331</v>
+        <v>1034.750559813164</v>
       </c>
       <c r="AB5" t="n">
-        <v>1200.208939751079</v>
+        <v>1415.791365909257</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.662683045062</v>
+        <v>1280.670225022539</v>
       </c>
       <c r="AD5" t="n">
-        <v>877189.183522533</v>
+        <v>1034750.559813164</v>
       </c>
       <c r="AE5" t="n">
-        <v>1200208.939751079</v>
+        <v>1415791.365909257</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.762204374596929e-07</v>
+        <v>1.294511255048806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.58854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085662.683045062</v>
+        <v>1280670.225022539</v>
       </c>
     </row>
     <row r="6">
@@ -32062,28 +32062,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>839.8225031084901</v>
+        <v>997.2985385445494</v>
       </c>
       <c r="AB6" t="n">
-        <v>1149.082199106991</v>
+        <v>1364.547858142971</v>
       </c>
       <c r="AC6" t="n">
-        <v>1039.415406771215</v>
+        <v>1234.317325716753</v>
       </c>
       <c r="AD6" t="n">
-        <v>839822.50310849</v>
+        <v>997298.5385445494</v>
       </c>
       <c r="AE6" t="n">
-        <v>1149082.199106991</v>
+        <v>1364547.858142971</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.943401374391915e-07</v>
+        <v>1.321280951986681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.84635416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1039415.406771214</v>
+        <v>1234317.325716753</v>
       </c>
     </row>
     <row r="7">
@@ -32168,28 +32168,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>817.885026350507</v>
+        <v>967.0639556558965</v>
       </c>
       <c r="AB7" t="n">
-        <v>1119.066375593549</v>
+        <v>1323.179567979058</v>
       </c>
       <c r="AC7" t="n">
-        <v>1012.264251326423</v>
+        <v>1196.897167105323</v>
       </c>
       <c r="AD7" t="n">
-        <v>817885.026350507</v>
+        <v>967063.9556558965</v>
       </c>
       <c r="AE7" t="n">
-        <v>1119066.375593549</v>
+        <v>1323179.567979058</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.047294219383064e-07</v>
+        <v>1.336629881480952e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.4296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1012264.251326423</v>
+        <v>1196897.167105323</v>
       </c>
     </row>
     <row r="8">
@@ -32274,28 +32274,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>796.4359391901019</v>
+        <v>945.6148684954911</v>
       </c>
       <c r="AB8" t="n">
-        <v>1089.718788273741</v>
+        <v>1293.83198065925</v>
       </c>
       <c r="AC8" t="n">
-        <v>985.7175565508196</v>
+        <v>1170.35047232972</v>
       </c>
       <c r="AD8" t="n">
-        <v>796435.9391901018</v>
+        <v>945614.8684954911</v>
       </c>
       <c r="AE8" t="n">
-        <v>1089718.788273741</v>
+        <v>1293831.98065925</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.137646527704745e-07</v>
+        <v>1.34997835807905e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>985717.5565508197</v>
+        <v>1170350.47232972</v>
       </c>
     </row>
     <row r="9">
@@ -32380,28 +32380,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>773.9100262385979</v>
+        <v>923.1742068900079</v>
       </c>
       <c r="AB9" t="n">
-        <v>1058.897840400351</v>
+        <v>1263.12767743851</v>
       </c>
       <c r="AC9" t="n">
-        <v>957.8381166849942</v>
+        <v>1142.576544714607</v>
       </c>
       <c r="AD9" t="n">
-        <v>773910.0262385979</v>
+        <v>923174.2068900079</v>
       </c>
       <c r="AE9" t="n">
-        <v>1058897.840400351</v>
+        <v>1263127.67743851</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.178021946137325e-07</v>
+        <v>1.355943344896729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>957838.1166849942</v>
+        <v>1142576.544714607</v>
       </c>
     </row>
     <row r="10">
@@ -32486,28 +32486,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>771.1016123114065</v>
+        <v>920.3657929628163</v>
       </c>
       <c r="AB10" t="n">
-        <v>1055.05524456669</v>
+        <v>1259.285081604848</v>
       </c>
       <c r="AC10" t="n">
-        <v>954.3622528045802</v>
+        <v>1139.100680834193</v>
       </c>
       <c r="AD10" t="n">
-        <v>771101.6123114065</v>
+        <v>920365.7929628163</v>
       </c>
       <c r="AE10" t="n">
-        <v>1055055.24456669</v>
+        <v>1259285.081604848</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.192547249110022e-07</v>
+        <v>1.35808928527626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>34.86979166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>954362.2528045801</v>
+        <v>1139100.680834193</v>
       </c>
     </row>
   </sheetData>
@@ -32783,28 +32783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1665.701965088901</v>
+        <v>1904.342802919543</v>
       </c>
       <c r="AB2" t="n">
-        <v>2279.086914218981</v>
+        <v>2605.605836629596</v>
       </c>
       <c r="AC2" t="n">
-        <v>2061.574057844495</v>
+        <v>2356.930472572427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1665701.965088901</v>
+        <v>1904342.802919543</v>
       </c>
       <c r="AE2" t="n">
-        <v>2279086.914218981</v>
+        <v>2605605.836629596</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744007344064053e-07</v>
+        <v>8.341269490594178e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2061574.057844495</v>
+        <v>2356930.472572427</v>
       </c>
     </row>
     <row r="3">
@@ -32889,28 +32889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1206.352669955565</v>
+        <v>1393.904951596539</v>
       </c>
       <c r="AB3" t="n">
-        <v>1650.584943556886</v>
+        <v>1907.202249520768</v>
       </c>
       <c r="AC3" t="n">
-        <v>1493.055433154335</v>
+        <v>1725.181543601674</v>
       </c>
       <c r="AD3" t="n">
-        <v>1206352.669955565</v>
+        <v>1393904.951596539</v>
       </c>
       <c r="AE3" t="n">
-        <v>1650584.943556886</v>
+        <v>1907202.249520768</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.262568016844246e-07</v>
+        <v>1.054647624795802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.5390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1493055.433154335</v>
+        <v>1725181.543601674</v>
       </c>
     </row>
     <row r="4">
@@ -32995,28 +32995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1084.397465659237</v>
+        <v>1254.806530272778</v>
       </c>
       <c r="AB4" t="n">
-        <v>1483.720452754758</v>
+        <v>1716.881652876347</v>
       </c>
       <c r="AC4" t="n">
-        <v>1342.116255158578</v>
+        <v>1553.024877584362</v>
       </c>
       <c r="AD4" t="n">
-        <v>1084397.465659237</v>
+        <v>1254806.530272777</v>
       </c>
       <c r="AE4" t="n">
-        <v>1483720.452754758</v>
+        <v>1716881.652876347</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.836921303643316e-07</v>
+        <v>1.13805342950722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.4140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1342116.255158578</v>
+        <v>1553024.877584362</v>
       </c>
     </row>
     <row r="5">
@@ -33101,28 +33101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1016.85709009855</v>
+        <v>1187.266065203539</v>
       </c>
       <c r="AB5" t="n">
-        <v>1391.308731241551</v>
+        <v>1624.469808893592</v>
       </c>
       <c r="AC5" t="n">
-        <v>1258.524178645926</v>
+        <v>1469.432690290483</v>
       </c>
       <c r="AD5" t="n">
-        <v>1016857.09009855</v>
+        <v>1187266.06520354</v>
       </c>
       <c r="AE5" t="n">
-        <v>1391308.731241551</v>
+        <v>1624469.808893592</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.155294748866097e-07</v>
+        <v>1.184286634762372e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.87760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1258524.178645926</v>
+        <v>1469432.690290483</v>
       </c>
     </row>
     <row r="6">
@@ -33207,28 +33207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.2329858045889</v>
+        <v>1149.113067577423</v>
       </c>
       <c r="AB6" t="n">
-        <v>1350.775724823311</v>
+        <v>1572.267194350078</v>
       </c>
       <c r="AC6" t="n">
-        <v>1221.85958547181</v>
+        <v>1422.212220012172</v>
       </c>
       <c r="AD6" t="n">
-        <v>987232.9858045889</v>
+        <v>1149113.067577423</v>
       </c>
       <c r="AE6" t="n">
-        <v>1350775.724823311</v>
+        <v>1572267.194350078</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.340103179438782e-07</v>
+        <v>1.211123942432836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.04427083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1221859.58547181</v>
+        <v>1422212.220012172</v>
       </c>
     </row>
     <row r="7">
@@ -33313,28 +33313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>953.5900541934851</v>
+        <v>1115.384795111747</v>
       </c>
       <c r="AB7" t="n">
-        <v>1304.743981571607</v>
+        <v>1526.118683976176</v>
       </c>
       <c r="AC7" t="n">
-        <v>1180.221047190091</v>
+        <v>1380.468058698515</v>
       </c>
       <c r="AD7" t="n">
-        <v>953590.0541934851</v>
+        <v>1115384.795111747</v>
       </c>
       <c r="AE7" t="n">
-        <v>1304743.981571607</v>
+        <v>1526118.683976176</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.481734287335951e-07</v>
+        <v>1.231691173086581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.41927083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1180221.047190091</v>
+        <v>1380468.058698515</v>
       </c>
     </row>
     <row r="8">
@@ -33419,28 +33419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>925.0487843335692</v>
+        <v>1086.928776597852</v>
       </c>
       <c r="AB8" t="n">
-        <v>1265.69255699731</v>
+        <v>1487.183904054529</v>
       </c>
       <c r="AC8" t="n">
-        <v>1144.896635768147</v>
+        <v>1345.249159527283</v>
       </c>
       <c r="AD8" t="n">
-        <v>925048.7843335692</v>
+        <v>1086928.776597852</v>
       </c>
       <c r="AE8" t="n">
-        <v>1265692.55699731</v>
+        <v>1487183.904054529</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.584221119181138e-07</v>
+        <v>1.246573993258135e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.98958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1144896.635768147</v>
+        <v>1345249.159527283</v>
       </c>
     </row>
     <row r="9">
@@ -33525,28 +33525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>908.0154279096004</v>
+        <v>1069.895420173883</v>
       </c>
       <c r="AB9" t="n">
-        <v>1242.386767279386</v>
+        <v>1463.878114336605</v>
       </c>
       <c r="AC9" t="n">
-        <v>1123.81511791102</v>
+        <v>1324.167641670156</v>
       </c>
       <c r="AD9" t="n">
-        <v>908015.4279096003</v>
+        <v>1069895.420173883</v>
       </c>
       <c r="AE9" t="n">
-        <v>1242386.767279386</v>
+        <v>1463878.114336605</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.652071197671237e-07</v>
+        <v>1.256426971427266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1123815.11791102</v>
+        <v>1324167.641670156</v>
       </c>
     </row>
     <row r="10">
@@ -33631,28 +33631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>891.6509273220478</v>
+        <v>1045.002026254175</v>
       </c>
       <c r="AB10" t="n">
-        <v>1219.996135624684</v>
+        <v>1429.817874556629</v>
       </c>
       <c r="AC10" t="n">
-        <v>1103.561416715993</v>
+        <v>1293.358063370934</v>
       </c>
       <c r="AD10" t="n">
-        <v>891650.9273220478</v>
+        <v>1045002.026254175</v>
       </c>
       <c r="AE10" t="n">
-        <v>1219996.135624683</v>
+        <v>1429817.874556629</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.703789089667189e-07</v>
+        <v>1.263937283458282e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.49479166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1103561.416715993</v>
+        <v>1293358.063370934</v>
       </c>
     </row>
     <row r="11">
@@ -33737,28 +33737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>878.543930596301</v>
+        <v>1031.895029528428</v>
       </c>
       <c r="AB11" t="n">
-        <v>1202.062564464631</v>
+        <v>1411.884303396577</v>
       </c>
       <c r="AC11" t="n">
-        <v>1087.339400417531</v>
+        <v>1277.136047072472</v>
       </c>
       <c r="AD11" t="n">
-        <v>878543.930596301</v>
+        <v>1031895.029528428</v>
       </c>
       <c r="AE11" t="n">
-        <v>1202062.564464631</v>
+        <v>1411884.303396577</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.759302790250001e-07</v>
+        <v>1.271998811051207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1087339.400417531</v>
+        <v>1277136.047072472</v>
       </c>
     </row>
     <row r="12">
@@ -33843,28 +33843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>860.8262481394415</v>
+        <v>1014.177347071569</v>
       </c>
       <c r="AB12" t="n">
-        <v>1177.820449678172</v>
+        <v>1387.642188610118</v>
       </c>
       <c r="AC12" t="n">
-        <v>1065.41091904227</v>
+        <v>1255.207565697211</v>
       </c>
       <c r="AD12" t="n">
-        <v>860826.2481394415</v>
+        <v>1014177.347071569</v>
       </c>
       <c r="AE12" t="n">
-        <v>1177820.449678172</v>
+        <v>1387642.188610117</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.792516115385013e-07</v>
+        <v>1.276821947217914e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.13020833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1065410.91904227</v>
+        <v>1255207.565697211</v>
       </c>
     </row>
     <row r="13">
@@ -33949,28 +33949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>852.0510989753288</v>
+        <v>1005.402197907456</v>
       </c>
       <c r="AB13" t="n">
-        <v>1165.813903459574</v>
+        <v>1375.63564239152</v>
       </c>
       <c r="AC13" t="n">
-        <v>1054.550260743482</v>
+        <v>1244.346907398423</v>
       </c>
       <c r="AD13" t="n">
-        <v>852051.0989753288</v>
+        <v>1005402.197907456</v>
       </c>
       <c r="AE13" t="n">
-        <v>1165813.903459575</v>
+        <v>1375635.64239152</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.823831536226598e-07</v>
+        <v>1.281369475603667e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.01302083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1054550.260743482</v>
+        <v>1244346.907398423</v>
       </c>
     </row>
     <row r="14">
@@ -34055,28 +34055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>852.7533194183262</v>
+        <v>1006.104418350454</v>
       </c>
       <c r="AB14" t="n">
-        <v>1166.774712449463</v>
+        <v>1376.596451381408</v>
       </c>
       <c r="AC14" t="n">
-        <v>1055.419371471879</v>
+        <v>1245.21601812682</v>
       </c>
       <c r="AD14" t="n">
-        <v>852753.3194183263</v>
+        <v>1006104.418350454</v>
       </c>
       <c r="AE14" t="n">
-        <v>1166774.712449463</v>
+        <v>1376596.451381408</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.82359429818992e-07</v>
+        <v>1.281335024631048e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.01302083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1055419.371471879</v>
+        <v>1245216.01812682</v>
       </c>
     </row>
   </sheetData>
@@ -34352,28 +34352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.437785402559</v>
+        <v>640.4951317526175</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.9845675109315</v>
+        <v>876.3536959148905</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.8969175590396</v>
+        <v>792.7157291469097</v>
       </c>
       <c r="AD2" t="n">
-        <v>498437.785402559</v>
+        <v>640495.1317526174</v>
       </c>
       <c r="AE2" t="n">
-        <v>681984.5675109315</v>
+        <v>876353.6959148905</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032056077192927e-06</v>
+        <v>1.720375991768447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>616896.9175590395</v>
+        <v>792715.7291469097</v>
       </c>
     </row>
   </sheetData>
@@ -34649,28 +34649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>951.0694410954769</v>
+        <v>1125.549409508262</v>
       </c>
       <c r="AB2" t="n">
-        <v>1301.295167529311</v>
+        <v>1540.026357824626</v>
       </c>
       <c r="AC2" t="n">
-        <v>1177.101383119551</v>
+        <v>1393.048403674412</v>
       </c>
       <c r="AD2" t="n">
-        <v>951069.441095477</v>
+        <v>1125549.409508262</v>
       </c>
       <c r="AE2" t="n">
-        <v>1301295.167529311</v>
+        <v>1540026.357824626</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.045843739333192e-07</v>
+        <v>1.224502286423041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.27864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1177101.383119551</v>
+        <v>1393048.403674412</v>
       </c>
     </row>
     <row r="3">
@@ -34755,28 +34755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.8489238513636</v>
+        <v>933.5866101912728</v>
       </c>
       <c r="AB3" t="n">
-        <v>1071.128434470467</v>
+        <v>1277.374386998114</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.9014400228049</v>
+        <v>1155.463568309225</v>
       </c>
       <c r="AD3" t="n">
-        <v>782848.9238513636</v>
+        <v>933586.6101912728</v>
       </c>
       <c r="AE3" t="n">
-        <v>1071128.434470467</v>
+        <v>1277374.386998114</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.13799243162431e-07</v>
+        <v>1.390717119093312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.2265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>968901.4400228049</v>
+        <v>1155463.568309225</v>
       </c>
     </row>
     <row r="4">
@@ -34861,28 +34861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>719.4388481283213</v>
+        <v>870.1764449596798</v>
       </c>
       <c r="AB4" t="n">
-        <v>984.3679714110948</v>
+        <v>1190.613801469193</v>
       </c>
       <c r="AC4" t="n">
-        <v>890.4212737887442</v>
+        <v>1076.983291293938</v>
       </c>
       <c r="AD4" t="n">
-        <v>719438.8481283213</v>
+        <v>870176.4449596797</v>
       </c>
       <c r="AE4" t="n">
-        <v>984367.9714110948</v>
+        <v>1190613.801469193</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.518676796377458e-07</v>
+        <v>1.448653724643691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.7421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>890421.2737887442</v>
+        <v>1076983.291293938</v>
       </c>
     </row>
     <row r="5">
@@ -34967,28 +34967,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.5655930995789</v>
+        <v>829.3607384636723</v>
       </c>
       <c r="AB5" t="n">
-        <v>939.3893336151122</v>
+        <v>1134.767951179469</v>
       </c>
       <c r="AC5" t="n">
-        <v>849.7353340560954</v>
+        <v>1026.467290575722</v>
       </c>
       <c r="AD5" t="n">
-        <v>686565.5930995789</v>
+        <v>829360.7384636723</v>
       </c>
       <c r="AE5" t="n">
-        <v>939389.3336151121</v>
+        <v>1134767.951179469</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.716204167519108e-07</v>
+        <v>1.478715546054869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.01302083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>849735.3340560955</v>
+        <v>1026467.290575722</v>
       </c>
     </row>
     <row r="6">
@@ -35073,28 +35073,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>675.220081998966</v>
+        <v>818.10047870908</v>
       </c>
       <c r="AB6" t="n">
-        <v>923.8659047986292</v>
+        <v>1119.361167015636</v>
       </c>
       <c r="AC6" t="n">
-        <v>835.6934394985884</v>
+        <v>1012.530908268928</v>
       </c>
       <c r="AD6" t="n">
-        <v>675220.0819989659</v>
+        <v>818100.47870908</v>
       </c>
       <c r="AE6" t="n">
-        <v>923865.9047986292</v>
+        <v>1119361.167015636</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.730574545049253e-07</v>
+        <v>1.480902583326847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.9609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>835693.4394985884</v>
+        <v>1012530.908268928</v>
       </c>
     </row>
   </sheetData>
@@ -35370,28 +35370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1163.360291431422</v>
+        <v>1359.178917395027</v>
       </c>
       <c r="AB2" t="n">
-        <v>1591.760874570275</v>
+        <v>1859.688557521754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1439.845450751706</v>
+        <v>1682.20249168116</v>
       </c>
       <c r="AD2" t="n">
-        <v>1163360.291431422</v>
+        <v>1359178.917395027</v>
       </c>
       <c r="AE2" t="n">
-        <v>1591760.874570275</v>
+        <v>1859688.557521754</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16054845024756e-07</v>
+        <v>1.06900593564326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1439845.450751706</v>
+        <v>1682202.49168116</v>
       </c>
     </row>
     <row r="3">
@@ -35476,28 +35476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.3110697628147</v>
+        <v>1082.550151968867</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.841962791502</v>
+        <v>1481.192876665866</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.795291254963</v>
+        <v>1339.829907384134</v>
       </c>
       <c r="AD3" t="n">
-        <v>919311.0697628147</v>
+        <v>1082550.151968867</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257841.962791502</v>
+        <v>1481192.876665866</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.413298539207086e-07</v>
+        <v>1.256030336117648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.93229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137795.291254963</v>
+        <v>1339829.907384134</v>
       </c>
     </row>
     <row r="4">
@@ -35582,28 +35582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>842.3211508058864</v>
+        <v>997.3940118589072</v>
       </c>
       <c r="AB4" t="n">
-        <v>1152.500959119125</v>
+        <v>1364.678488943661</v>
       </c>
       <c r="AC4" t="n">
-        <v>1042.50788512605</v>
+        <v>1234.435489297166</v>
       </c>
       <c r="AD4" t="n">
-        <v>842321.1508058864</v>
+        <v>997394.0118589072</v>
       </c>
       <c r="AE4" t="n">
-        <v>1152500.959119125</v>
+        <v>1364678.488943661</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.879432257046843e-07</v>
+        <v>1.325619937338338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.88802083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1042507.885126051</v>
+        <v>1234435.489297166</v>
       </c>
     </row>
     <row r="5">
@@ -35688,28 +35688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>799.1529957945047</v>
+        <v>954.1405159929539</v>
       </c>
       <c r="AB5" t="n">
-        <v>1093.436384987962</v>
+        <v>1305.497147690301</v>
       </c>
       <c r="AC5" t="n">
-        <v>989.0803510523155</v>
+        <v>1180.902332191492</v>
       </c>
       <c r="AD5" t="n">
-        <v>799152.9957945046</v>
+        <v>954140.5159929539</v>
       </c>
       <c r="AE5" t="n">
-        <v>1093436.384987962</v>
+        <v>1305497.147690301</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.114134231544683e-07</v>
+        <v>1.360658846101914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>989080.3510523154</v>
+        <v>1180902.332191492</v>
       </c>
     </row>
     <row r="6">
@@ -35794,28 +35794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>771.5684147509409</v>
+        <v>918.3898033049099</v>
       </c>
       <c r="AB6" t="n">
-        <v>1055.693944258331</v>
+        <v>1256.581445380389</v>
       </c>
       <c r="AC6" t="n">
-        <v>954.9399958940714</v>
+        <v>1136.655075856419</v>
       </c>
       <c r="AD6" t="n">
-        <v>771568.4147509409</v>
+        <v>918389.80330491</v>
       </c>
       <c r="AE6" t="n">
-        <v>1055693.944258331</v>
+        <v>1256581.445380389</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.267835095872849e-07</v>
+        <v>1.383605012505498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.33854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>954939.9958940714</v>
+        <v>1136655.07585642</v>
       </c>
     </row>
     <row r="7">
@@ -35900,28 +35900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>750.5577322542142</v>
+        <v>897.3791208081834</v>
       </c>
       <c r="AB7" t="n">
-        <v>1026.946201540417</v>
+        <v>1227.833702662475</v>
       </c>
       <c r="AC7" t="n">
-        <v>928.935897393445</v>
+        <v>1110.650977355793</v>
       </c>
       <c r="AD7" t="n">
-        <v>750557.7322542142</v>
+        <v>897379.1208081834</v>
       </c>
       <c r="AE7" t="n">
-        <v>1026946.201540417</v>
+        <v>1227833.702662475</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.355879780839883e-07</v>
+        <v>1.396749297679401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.01302083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>928935.897393445</v>
+        <v>1110650.977355793</v>
       </c>
     </row>
     <row r="8">
@@ -36006,28 +36006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>733.2863154501249</v>
+        <v>880.1929553501147</v>
       </c>
       <c r="AB8" t="n">
-        <v>1003.314687107929</v>
+        <v>1204.318832882637</v>
       </c>
       <c r="AC8" t="n">
-        <v>907.5597415313551</v>
+        <v>1089.380333744415</v>
       </c>
       <c r="AD8" t="n">
-        <v>733286.3154501249</v>
+        <v>880192.9553501147</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003314.687107929</v>
+        <v>1204318.832882637</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.398392785866823e-07</v>
+        <v>1.403096109663371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.85677083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>907559.7415313552</v>
+        <v>1089380.333744415</v>
       </c>
     </row>
   </sheetData>
